--- a/Code/Results/Cases/Case_3_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_204/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9959323559454086</v>
+        <v>1.04683631701326</v>
       </c>
       <c r="D2">
-        <v>1.014099070411814</v>
+        <v>1.044526583574538</v>
       </c>
       <c r="E2">
-        <v>1.007705766336513</v>
+        <v>1.05404822482355</v>
       </c>
       <c r="F2">
-        <v>1.008753622862348</v>
+        <v>1.064288156663795</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043671384834341</v>
+        <v>1.036873849467261</v>
       </c>
       <c r="J2">
-        <v>1.018235413972313</v>
+        <v>1.051888589540881</v>
       </c>
       <c r="K2">
-        <v>1.025365416067232</v>
+        <v>1.047297384801488</v>
       </c>
       <c r="L2">
-        <v>1.019058781406355</v>
+        <v>1.056792509977215</v>
       </c>
       <c r="M2">
-        <v>1.020092338147952</v>
+        <v>1.067004498653303</v>
       </c>
       <c r="N2">
-        <v>1.019681425053388</v>
+        <v>1.053382391991337</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004508435076278</v>
+        <v>1.04847530490094</v>
       </c>
       <c r="D3">
-        <v>1.020415610115001</v>
+        <v>1.045723588076897</v>
       </c>
       <c r="E3">
-        <v>1.01544276474645</v>
+        <v>1.055581864906168</v>
       </c>
       <c r="F3">
-        <v>1.017610782038253</v>
+        <v>1.066079459659062</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046380564489677</v>
+        <v>1.037261713018638</v>
       </c>
       <c r="J3">
-        <v>1.024876945617534</v>
+        <v>1.053172414506922</v>
       </c>
       <c r="K3">
-        <v>1.030793766996543</v>
+        <v>1.048304639119227</v>
       </c>
       <c r="L3">
-        <v>1.025881793127179</v>
+        <v>1.058137473881384</v>
       </c>
       <c r="M3">
-        <v>1.028023181234785</v>
+        <v>1.06860853398062</v>
       </c>
       <c r="N3">
-        <v>1.02633238843534</v>
+        <v>1.054668040136087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009866123497753</v>
+        <v>1.049533318452228</v>
       </c>
       <c r="D4">
-        <v>1.024362861812792</v>
+        <v>1.046495689038585</v>
       </c>
       <c r="E4">
-        <v>1.020282686775897</v>
+        <v>1.056572153961129</v>
       </c>
       <c r="F4">
-        <v>1.023154650224652</v>
+        <v>1.067236771621106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048055634344881</v>
+        <v>1.037509883150625</v>
       </c>
       <c r="J4">
-        <v>1.02902077615133</v>
+        <v>1.054000289361745</v>
       </c>
       <c r="K4">
-        <v>1.034175878389792</v>
+        <v>1.048953397801746</v>
       </c>
       <c r="L4">
-        <v>1.030142328820752</v>
+        <v>1.059005183328979</v>
       </c>
       <c r="M4">
-        <v>1.03298142561364</v>
+        <v>1.069644226292876</v>
       </c>
       <c r="N4">
-        <v>1.030482103683797</v>
+        <v>1.055497090668162</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012075583351728</v>
+        <v>1.049977515835262</v>
       </c>
       <c r="D5">
-        <v>1.025990790808228</v>
+        <v>1.046819703636782</v>
       </c>
       <c r="E5">
-        <v>1.022280078426919</v>
+        <v>1.056987984496798</v>
       </c>
       <c r="F5">
-        <v>1.025443385228949</v>
+        <v>1.067722891883113</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048742148583672</v>
+        <v>1.037613546011512</v>
       </c>
       <c r="J5">
-        <v>1.030728302861622</v>
+        <v>1.054347656058384</v>
       </c>
       <c r="K5">
-        <v>1.03556833420632</v>
+        <v>1.049225424491637</v>
       </c>
       <c r="L5">
-        <v>1.031898787375107</v>
+        <v>1.059369362433763</v>
       </c>
       <c r="M5">
-        <v>1.035026978352402</v>
+        <v>1.07007911005171</v>
       </c>
       <c r="N5">
-        <v>1.032192055277874</v>
+        <v>1.055844950665354</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012444125546358</v>
+        <v>1.050052064192567</v>
       </c>
       <c r="D6">
-        <v>1.026262335242584</v>
+        <v>1.04687407352201</v>
       </c>
       <c r="E6">
-        <v>1.022613330329508</v>
+        <v>1.057057776024247</v>
       </c>
       <c r="F6">
-        <v>1.025825296376762</v>
+        <v>1.067804489721182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048856406887644</v>
+        <v>1.037630912393535</v>
       </c>
       <c r="J6">
-        <v>1.03101304006407</v>
+        <v>1.054405941326267</v>
       </c>
       <c r="K6">
-        <v>1.035800460535601</v>
+        <v>1.049271057459538</v>
       </c>
       <c r="L6">
-        <v>1.032191733929839</v>
+        <v>1.059430474458896</v>
       </c>
       <c r="M6">
-        <v>1.035368227216416</v>
+        <v>1.070152098714276</v>
       </c>
       <c r="N6">
-        <v>1.032477196839809</v>
+        <v>1.055903318705003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C7">
-        <v>1.009895811332505</v>
+        <v>1.04953925614701</v>
       </c>
       <c r="D7">
-        <v>1.024384735519334</v>
+        <v>1.046500020792575</v>
       </c>
       <c r="E7">
-        <v>1.020309519466724</v>
+        <v>1.056577712207903</v>
       </c>
       <c r="F7">
-        <v>1.02318539341765</v>
+        <v>1.067243268791909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048064875852335</v>
+        <v>1.037511270918462</v>
       </c>
       <c r="J7">
-        <v>1.029043725111077</v>
+        <v>1.054004933519644</v>
       </c>
       <c r="K7">
-        <v>1.034194597621351</v>
+        <v>1.048957035421139</v>
       </c>
       <c r="L7">
-        <v>1.030165932071798</v>
+        <v>1.059010051875382</v>
       </c>
       <c r="M7">
-        <v>1.033008907901</v>
+        <v>1.069650039263297</v>
       </c>
       <c r="N7">
-        <v>1.0305050852337</v>
+        <v>1.055501741421297</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9988722349511825</v>
+        <v>1.047390749969239</v>
       </c>
       <c r="D8">
-        <v>1.016264034170741</v>
+        <v>1.044931626950305</v>
       </c>
       <c r="E8">
-        <v>1.010356589684231</v>
+        <v>1.054566962496569</v>
       </c>
       <c r="F8">
-        <v>1.011787586992308</v>
+        <v>1.064893912280936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044603724557609</v>
+        <v>1.037005512259378</v>
       </c>
       <c r="J8">
-        <v>1.020513201928785</v>
+        <v>1.052323059102204</v>
       </c>
       <c r="K8">
-        <v>1.027228114865951</v>
+        <v>1.047638417142532</v>
       </c>
       <c r="L8">
-        <v>1.021398078289118</v>
+        <v>1.057247585341569</v>
       </c>
       <c r="M8">
-        <v>1.022810220591937</v>
+        <v>1.067547057761749</v>
       </c>
       <c r="N8">
-        <v>1.021962447730025</v>
+        <v>1.053817478549271</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9778286858152652</v>
+        <v>1.043584954397953</v>
       </c>
       <c r="D9">
-        <v>1.000779771142502</v>
+        <v>1.0421488723906</v>
       </c>
       <c r="E9">
-        <v>0.991414466327993</v>
+        <v>1.051007365176179</v>
       </c>
       <c r="F9">
-        <v>0.990118946218141</v>
+        <v>1.060739836928771</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037857971997515</v>
+        <v>1.036092679569106</v>
       </c>
       <c r="J9">
-        <v>1.004189418498676</v>
+        <v>1.049337163287071</v>
       </c>
       <c r="K9">
-        <v>1.013860209759945</v>
+        <v>1.045291521366711</v>
       </c>
       <c r="L9">
-        <v>1.004648390798874</v>
+        <v>1.054121751823649</v>
       </c>
       <c r="M9">
-        <v>1.003374397108306</v>
+        <v>1.063823767444305</v>
       </c>
       <c r="N9">
-        <v>1.00561548265508</v>
+        <v>1.050827342419594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9624653573713777</v>
+        <v>1.041033645201152</v>
       </c>
       <c r="D10">
-        <v>0.9895009168021422</v>
+        <v>1.040280406201721</v>
       </c>
       <c r="E10">
-        <v>0.9776328026916834</v>
+        <v>1.048622600237341</v>
       </c>
       <c r="F10">
-        <v>0.9743645123010454</v>
+        <v>1.057960100013911</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032845198385864</v>
+        <v>1.035469375643349</v>
       </c>
       <c r="J10">
-        <v>0.992251603611932</v>
+        <v>1.047331032386908</v>
       </c>
       <c r="K10">
-        <v>1.004062358694171</v>
+        <v>1.043710780777549</v>
       </c>
       <c r="L10">
-        <v>0.9924179986258254</v>
+        <v>1.052023697773499</v>
       </c>
       <c r="M10">
-        <v>0.9892125807745212</v>
+        <v>1.06132902988328</v>
       </c>
       <c r="N10">
-        <v>0.9936607147019103</v>
+        <v>1.048818362583446</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9554286207462591</v>
+        <v>1.03992538188453</v>
       </c>
       <c r="D11">
-        <v>0.9843447257033373</v>
+        <v>1.039468075257443</v>
       </c>
       <c r="E11">
-        <v>0.9713339744032977</v>
+        <v>1.047587044639802</v>
       </c>
       <c r="F11">
-        <v>0.9671652828388917</v>
+        <v>1.056753808616156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030530177013375</v>
+        <v>1.03519593204117</v>
       </c>
       <c r="J11">
-        <v>0.9867808130707083</v>
+        <v>1.046458537617744</v>
       </c>
       <c r="K11">
-        <v>0.9995680423492195</v>
+        <v>1.04302236951652</v>
       </c>
       <c r="L11">
-        <v>0.9868175234555909</v>
+        <v>1.051111717985073</v>
       </c>
       <c r="M11">
-        <v>0.9827341660900474</v>
+        <v>1.060245641846727</v>
       </c>
       <c r="N11">
-        <v>0.98818215501061</v>
+        <v>1.047944628771633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9527501261138849</v>
+        <v>1.039513178423022</v>
       </c>
       <c r="D12">
-        <v>0.9823838807044863</v>
+        <v>1.039165838024379</v>
       </c>
       <c r="E12">
-        <v>0.9689386047547049</v>
+        <v>1.047201938886261</v>
       </c>
       <c r="F12">
-        <v>0.9644275495723491</v>
+        <v>1.0563053251025</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029646295030639</v>
+        <v>1.035093825512704</v>
       </c>
       <c r="J12">
-        <v>0.9846981161850261</v>
+        <v>1.046133867654765</v>
       </c>
       <c r="K12">
-        <v>0.9978565430054026</v>
+        <v>1.042766061870443</v>
       </c>
       <c r="L12">
-        <v>0.9846861086267817</v>
+        <v>1.050772428854195</v>
       </c>
       <c r="M12">
-        <v>0.9802695383501913</v>
+        <v>1.059842735800597</v>
       </c>
       <c r="N12">
-        <v>0.9860965004564612</v>
+        <v>1.047619497740067</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9533277276155735</v>
+        <v>1.039601622372523</v>
       </c>
       <c r="D13">
-        <v>0.9828066363988013</v>
+        <v>1.039230691780289</v>
       </c>
       <c r="E13">
-        <v>0.9694550469397415</v>
+        <v>1.047284566147326</v>
       </c>
       <c r="F13">
-        <v>0.9650178056999072</v>
+        <v>1.056401545286366</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029837016690554</v>
+        <v>1.035115752096442</v>
       </c>
       <c r="J13">
-        <v>0.9851472464372094</v>
+        <v>1.046203537194791</v>
       </c>
       <c r="K13">
-        <v>0.9982256478387802</v>
+        <v>1.042821068076504</v>
       </c>
       <c r="L13">
-        <v>0.985145715550101</v>
+        <v>1.050845232121724</v>
       </c>
       <c r="M13">
-        <v>0.9808009575650242</v>
+        <v>1.059929182804896</v>
       </c>
       <c r="N13">
-        <v>0.9865462685251188</v>
+        <v>1.047689266218831</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.95520858101394</v>
+        <v>1.03989132022451</v>
       </c>
       <c r="D14">
-        <v>0.9841836019485836</v>
+        <v>1.039443102517163</v>
       </c>
       <c r="E14">
-        <v>0.9711371467298888</v>
+        <v>1.047555221021867</v>
       </c>
       <c r="F14">
-        <v>0.9669403230202999</v>
+        <v>1.056716745347975</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030457618794562</v>
+        <v>1.035187502871067</v>
       </c>
       <c r="J14">
-        <v>0.9866097227763536</v>
+        <v>1.046431712330591</v>
       </c>
       <c r="K14">
-        <v>0.9994274557095841</v>
+        <v>1.043001195360783</v>
       </c>
       <c r="L14">
-        <v>0.9866424179061629</v>
+        <v>1.051083683310371</v>
       </c>
       <c r="M14">
-        <v>0.982531667521772</v>
+        <v>1.060212347534672</v>
       </c>
       <c r="N14">
-        <v>0.988010821748413</v>
+        <v>1.047917765389495</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9563586284403791</v>
+        <v>1.040069739952005</v>
       </c>
       <c r="D15">
-        <v>0.9850257989040218</v>
+        <v>1.039573909057824</v>
       </c>
       <c r="E15">
-        <v>0.972165967686795</v>
+        <v>1.047721919829852</v>
       </c>
       <c r="F15">
-        <v>0.968116192167937</v>
+        <v>1.056910895292209</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030836739948935</v>
+        <v>1.035231639553573</v>
       </c>
       <c r="J15">
-        <v>0.9875039239574525</v>
+        <v>1.046572220488136</v>
       </c>
       <c r="K15">
-        <v>1.000162208617725</v>
+        <v>1.043112097806602</v>
       </c>
       <c r="L15">
-        <v>0.9875576311589112</v>
+        <v>1.051230529139566</v>
       </c>
       <c r="M15">
-        <v>0.9835900906997944</v>
+        <v>1.060386749645344</v>
       </c>
       <c r="N15">
-        <v>0.9889062927977552</v>
+        <v>1.04805847308474</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.96292369492542</v>
+        <v>1.04110712136002</v>
       </c>
       <c r="D16">
-        <v>0.9898369953688911</v>
+        <v>1.040334248156281</v>
       </c>
       <c r="E16">
-        <v>0.9780433716304838</v>
+        <v>1.048691263665226</v>
       </c>
       <c r="F16">
-        <v>0.9748337855111776</v>
+        <v>1.058040100513093</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032995609401639</v>
+        <v>1.035487448064768</v>
       </c>
       <c r="J16">
-        <v>0.9926078958778098</v>
+        <v>1.047388855375263</v>
       </c>
       <c r="K16">
-        <v>1.004354977548059</v>
+        <v>1.043756384577853</v>
       </c>
       <c r="L16">
-        <v>0.9927828265746915</v>
+        <v>1.052084147916643</v>
       </c>
       <c r="M16">
-        <v>0.9896347282223412</v>
+        <v>1.061400863198558</v>
       </c>
       <c r="N16">
-        <v>0.9940175129436731</v>
+        <v>1.048876267687077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9669343180797209</v>
+        <v>1.041756887910492</v>
       </c>
       <c r="D17">
-        <v>0.9927789399097171</v>
+        <v>1.040810305793307</v>
       </c>
       <c r="E17">
-        <v>0.9816375344754361</v>
+        <v>1.049298512016511</v>
       </c>
       <c r="F17">
-        <v>0.9789419767459032</v>
+        <v>1.05874770155262</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034309643900688</v>
+        <v>1.035646956885536</v>
       </c>
       <c r="J17">
-        <v>0.9957252660866681</v>
+        <v>1.047900076146989</v>
       </c>
       <c r="K17">
-        <v>1.006914776282219</v>
+        <v>1.044159467373231</v>
       </c>
       <c r="L17">
-        <v>0.9959753711519169</v>
+        <v>1.052618652576205</v>
       </c>
       <c r="M17">
-        <v>0.9933295862637337</v>
+        <v>1.062036136453119</v>
       </c>
       <c r="N17">
-        <v>0.9971393101757954</v>
+        <v>1.049388214450936</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9692370968326781</v>
+        <v>1.042135546201646</v>
       </c>
       <c r="D18">
-        <v>0.9944690009319112</v>
+        <v>1.041087667043981</v>
       </c>
       <c r="E18">
-        <v>0.9837024349460368</v>
+        <v>1.049652427254739</v>
       </c>
       <c r="F18">
-        <v>0.9813023200966788</v>
+        <v>1.059160178928406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035062332277754</v>
+        <v>1.035739653553802</v>
       </c>
       <c r="J18">
-        <v>0.9975148720334237</v>
+        <v>1.048197894129881</v>
       </c>
       <c r="K18">
-        <v>1.008383894527913</v>
+        <v>1.044394199200125</v>
       </c>
       <c r="L18">
-        <v>0.997808543237415</v>
+        <v>1.052930082402836</v>
       </c>
       <c r="M18">
-        <v>0.9954517984443045</v>
+        <v>1.062406377612387</v>
       </c>
       <c r="N18">
-        <v>0.9989314575682663</v>
+        <v>1.049686455369525</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9700162789305413</v>
+        <v>1.042264601747298</v>
       </c>
       <c r="D19">
-        <v>0.9950410005073728</v>
+        <v>1.041182186904121</v>
       </c>
       <c r="E19">
-        <v>0.9844013316352744</v>
+        <v>1.049773055690443</v>
       </c>
       <c r="F19">
-        <v>0.9821012389558168</v>
+        <v>1.059300780380351</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035316707762774</v>
+        <v>1.035771202817992</v>
       </c>
       <c r="J19">
-        <v>0.9981203591221423</v>
+        <v>1.048299380220607</v>
       </c>
       <c r="K19">
-        <v>1.008880878957172</v>
+        <v>1.044474172582338</v>
       </c>
       <c r="L19">
-        <v>0.9984288401465887</v>
+        <v>1.053036215010583</v>
       </c>
       <c r="M19">
-        <v>0.9961700040102396</v>
+        <v>1.062532569316294</v>
       </c>
       <c r="N19">
-        <v>0.9995378045181014</v>
+        <v>1.04978808558214</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9665078434756269</v>
+        <v>1.041687209336827</v>
       </c>
       <c r="D20">
-        <v>0.9924660100673313</v>
+        <v>1.040759261977795</v>
       </c>
       <c r="E20">
-        <v>0.9812552141502416</v>
+        <v>1.049233389325265</v>
       </c>
       <c r="F20">
-        <v>0.9785049657127025</v>
+        <v>1.058671809077204</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034170099534226</v>
+        <v>1.035629878517049</v>
       </c>
       <c r="J20">
-        <v>0.9953938060408929</v>
+        <v>1.047845265190152</v>
       </c>
       <c r="K20">
-        <v>1.006642642001786</v>
+        <v>1.044116259728119</v>
       </c>
       <c r="L20">
-        <v>0.9956358754056606</v>
+        <v>1.05256134030196</v>
       </c>
       <c r="M20">
-        <v>0.9929366113935334</v>
+        <v>1.061968009086585</v>
       </c>
       <c r="N20">
-        <v>0.9968073794187363</v>
+        <v>1.049333325656254</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9546565659895109</v>
+        <v>1.039806026595564</v>
       </c>
       <c r="D21">
-        <v>0.9837794205129824</v>
+        <v>1.039380566767218</v>
       </c>
       <c r="E21">
-        <v>0.9706434007821261</v>
+        <v>1.047475532553902</v>
       </c>
       <c r="F21">
-        <v>0.9663760073194223</v>
+        <v>1.056623938317015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030275549148006</v>
+        <v>1.03516638892529</v>
       </c>
       <c r="J21">
-        <v>0.9861805038236974</v>
+        <v>1.04636453672601</v>
       </c>
       <c r="K21">
-        <v>0.9990747537825672</v>
+        <v>1.042948169030615</v>
       </c>
       <c r="L21">
-        <v>0.9862031362155318</v>
+        <v>1.051013480361902</v>
       </c>
       <c r="M21">
-        <v>0.9820236802375338</v>
+        <v>1.060128976151438</v>
       </c>
       <c r="N21">
-        <v>0.9875809932556116</v>
+        <v>1.04785049438785</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9468262228756905</v>
+        <v>1.03862009097946</v>
       </c>
       <c r="D22">
-        <v>0.9780510079879023</v>
+        <v>1.038510820838061</v>
       </c>
       <c r="E22">
-        <v>0.9636453038724865</v>
+        <v>1.046367663223887</v>
       </c>
       <c r="F22">
-        <v>0.9583776068495058</v>
+        <v>1.055333962372633</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027686718221092</v>
+        <v>1.034871863265579</v>
       </c>
       <c r="J22">
-        <v>0.9800916379382544</v>
+        <v>1.045430144480179</v>
       </c>
       <c r="K22">
-        <v>0.9940701893888102</v>
+        <v>1.042210261965814</v>
       </c>
       <c r="L22">
-        <v>0.9799730740536321</v>
+        <v>1.050037153461889</v>
       </c>
       <c r="M22">
-        <v>0.974821301319966</v>
+        <v>1.058969875532991</v>
       </c>
       <c r="N22">
-        <v>0.9814834804822087</v>
+        <v>1.046914775197855</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9510158327553406</v>
+        <v>1.039249082543405</v>
       </c>
       <c r="D23">
-        <v>0.9811148232731998</v>
+        <v>1.038972168275034</v>
       </c>
       <c r="E23">
-        <v>0.9673882949846636</v>
+        <v>1.0469552198946</v>
       </c>
       <c r="F23">
-        <v>0.9626556525893134</v>
+        <v>1.05601803557716</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029073260682495</v>
+        <v>1.035028293233686</v>
       </c>
       <c r="J23">
-        <v>0.9833495436159908</v>
+        <v>1.045925809632727</v>
       </c>
       <c r="K23">
-        <v>0.9967481859330617</v>
+        <v>1.0426017735852</v>
       </c>
       <c r="L23">
-        <v>0.9833061734654998</v>
+        <v>1.050555023202746</v>
       </c>
       <c r="M23">
-        <v>0.9786741203298035</v>
+        <v>1.059584609509203</v>
       </c>
       <c r="N23">
-        <v>0.9847460127596948</v>
+        <v>1.047411144251773</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9667006614276912</v>
+        <v>1.04171869513408</v>
       </c>
       <c r="D24">
-        <v>0.9926074893661846</v>
+        <v>1.040782327454614</v>
       </c>
       <c r="E24">
-        <v>0.981428065199731</v>
+        <v>1.049262816338997</v>
       </c>
       <c r="F24">
-        <v>0.9787025426065851</v>
+        <v>1.058706102405909</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034233195999414</v>
+        <v>1.035637596553818</v>
       </c>
       <c r="J24">
-        <v>0.9955436668815768</v>
+        <v>1.047870033040683</v>
       </c>
       <c r="K24">
-        <v>1.006765681525839</v>
+        <v>1.044135784575892</v>
       </c>
       <c r="L24">
-        <v>0.9957893680972192</v>
+        <v>1.052587238295143</v>
       </c>
       <c r="M24">
-        <v>0.9931142811458838</v>
+        <v>1.061998793847147</v>
       </c>
       <c r="N24">
-        <v>0.9969574530790033</v>
+        <v>1.049358128679974</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9834839393833333</v>
+        <v>1.044571274661826</v>
       </c>
       <c r="D25">
-        <v>1.004937715714377</v>
+        <v>1.042870588311257</v>
       </c>
       <c r="E25">
-        <v>0.9964976002150207</v>
+        <v>1.05192961879905</v>
       </c>
       <c r="F25">
-        <v>0.9959315046225021</v>
+        <v>1.0618155307087</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039686177499037</v>
+        <v>1.036331252573766</v>
       </c>
       <c r="J25">
-        <v>1.008580212049858</v>
+        <v>1.050111782808785</v>
       </c>
       <c r="K25">
-        <v>1.017459860554277</v>
+        <v>1.045901061291052</v>
       </c>
       <c r="L25">
-        <v>1.009150530836271</v>
+        <v>1.054932305379245</v>
       </c>
       <c r="M25">
-        <v>1.008593308781887</v>
+        <v>1.064788484095818</v>
       </c>
       <c r="N25">
-        <v>1.010012511636736</v>
+        <v>1.051603061989879</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_204/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_204/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.04683631701326</v>
+        <v>0.9959323559454096</v>
       </c>
       <c r="D2">
-        <v>1.044526583574538</v>
+        <v>1.014099070411815</v>
       </c>
       <c r="E2">
-        <v>1.05404822482355</v>
+        <v>1.007705766336514</v>
       </c>
       <c r="F2">
-        <v>1.064288156663795</v>
+        <v>1.008753622862349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036873849467261</v>
+        <v>1.043671384834342</v>
       </c>
       <c r="J2">
-        <v>1.051888589540881</v>
+        <v>1.018235413972314</v>
       </c>
       <c r="K2">
-        <v>1.047297384801488</v>
+        <v>1.025365416067233</v>
       </c>
       <c r="L2">
-        <v>1.056792509977215</v>
+        <v>1.019058781406357</v>
       </c>
       <c r="M2">
-        <v>1.067004498653303</v>
+        <v>1.020092338147953</v>
       </c>
       <c r="N2">
-        <v>1.053382391991337</v>
+        <v>1.019681425053389</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04847530490094</v>
+        <v>1.00450843507628</v>
       </c>
       <c r="D3">
-        <v>1.045723588076897</v>
+        <v>1.020415610115002</v>
       </c>
       <c r="E3">
-        <v>1.055581864906168</v>
+        <v>1.015442764746451</v>
       </c>
       <c r="F3">
-        <v>1.066079459659062</v>
+        <v>1.017610782038255</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037261713018638</v>
+        <v>1.046380564489678</v>
       </c>
       <c r="J3">
-        <v>1.053172414506922</v>
+        <v>1.024876945617536</v>
       </c>
       <c r="K3">
-        <v>1.048304639119227</v>
+        <v>1.030793766996544</v>
       </c>
       <c r="L3">
-        <v>1.058137473881384</v>
+        <v>1.02588179312718</v>
       </c>
       <c r="M3">
-        <v>1.06860853398062</v>
+        <v>1.028023181234787</v>
       </c>
       <c r="N3">
-        <v>1.054668040136087</v>
+        <v>1.026332388435342</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049533318452228</v>
+        <v>1.009866123497752</v>
       </c>
       <c r="D4">
-        <v>1.046495689038585</v>
+        <v>1.024362861812792</v>
       </c>
       <c r="E4">
-        <v>1.056572153961129</v>
+        <v>1.020282686775895</v>
       </c>
       <c r="F4">
-        <v>1.067236771621106</v>
+        <v>1.023154650224651</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037509883150625</v>
+        <v>1.048055634344881</v>
       </c>
       <c r="J4">
-        <v>1.054000289361745</v>
+        <v>1.029020776151329</v>
       </c>
       <c r="K4">
-        <v>1.048953397801746</v>
+        <v>1.034175878389791</v>
       </c>
       <c r="L4">
-        <v>1.059005183328979</v>
+        <v>1.030142328820751</v>
       </c>
       <c r="M4">
-        <v>1.069644226292876</v>
+        <v>1.032981425613639</v>
       </c>
       <c r="N4">
-        <v>1.055497090668162</v>
+        <v>1.030482103683797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049977515835262</v>
+        <v>1.012075583351729</v>
       </c>
       <c r="D5">
-        <v>1.046819703636782</v>
+        <v>1.025990790808229</v>
       </c>
       <c r="E5">
-        <v>1.056987984496798</v>
+        <v>1.02228007842692</v>
       </c>
       <c r="F5">
-        <v>1.067722891883113</v>
+        <v>1.025443385228949</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037613546011512</v>
+        <v>1.048742148583672</v>
       </c>
       <c r="J5">
-        <v>1.054347656058384</v>
+        <v>1.030728302861622</v>
       </c>
       <c r="K5">
-        <v>1.049225424491637</v>
+        <v>1.035568334206321</v>
       </c>
       <c r="L5">
-        <v>1.059369362433763</v>
+        <v>1.031898787375107</v>
       </c>
       <c r="M5">
-        <v>1.07007911005171</v>
+        <v>1.035026978352402</v>
       </c>
       <c r="N5">
-        <v>1.055844950665354</v>
+        <v>1.032192055277874</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050052064192567</v>
+        <v>1.012444125546357</v>
       </c>
       <c r="D6">
-        <v>1.04687407352201</v>
+        <v>1.026262335242583</v>
       </c>
       <c r="E6">
-        <v>1.057057776024247</v>
+        <v>1.022613330329508</v>
       </c>
       <c r="F6">
-        <v>1.067804489721182</v>
+        <v>1.025825296376762</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037630912393535</v>
+        <v>1.048856406887644</v>
       </c>
       <c r="J6">
-        <v>1.054405941326267</v>
+        <v>1.031013040064069</v>
       </c>
       <c r="K6">
-        <v>1.049271057459538</v>
+        <v>1.0358004605356</v>
       </c>
       <c r="L6">
-        <v>1.059430474458896</v>
+        <v>1.032191733929839</v>
       </c>
       <c r="M6">
-        <v>1.070152098714276</v>
+        <v>1.035368227216416</v>
       </c>
       <c r="N6">
-        <v>1.055903318705003</v>
+        <v>1.032477196839809</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04953925614701</v>
+        <v>1.009895811332505</v>
       </c>
       <c r="D7">
-        <v>1.046500020792575</v>
+        <v>1.024384735519333</v>
       </c>
       <c r="E7">
-        <v>1.056577712207903</v>
+        <v>1.020309519466724</v>
       </c>
       <c r="F7">
-        <v>1.067243268791909</v>
+        <v>1.02318539341765</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037511270918462</v>
+        <v>1.048064875852335</v>
       </c>
       <c r="J7">
-        <v>1.054004933519644</v>
+        <v>1.029043725111077</v>
       </c>
       <c r="K7">
-        <v>1.048957035421139</v>
+        <v>1.03419459762135</v>
       </c>
       <c r="L7">
-        <v>1.059010051875382</v>
+        <v>1.030165932071798</v>
       </c>
       <c r="M7">
-        <v>1.069650039263297</v>
+        <v>1.033008907901</v>
       </c>
       <c r="N7">
-        <v>1.055501741421297</v>
+        <v>1.030505085233699</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047390749969239</v>
+        <v>0.9988722349511837</v>
       </c>
       <c r="D8">
-        <v>1.044931626950305</v>
+        <v>1.016264034170742</v>
       </c>
       <c r="E8">
-        <v>1.054566962496569</v>
+        <v>1.010356589684232</v>
       </c>
       <c r="F8">
-        <v>1.064893912280936</v>
+        <v>1.011787586992309</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037005512259378</v>
+        <v>1.044603724557609</v>
       </c>
       <c r="J8">
-        <v>1.052323059102204</v>
+        <v>1.020513201928787</v>
       </c>
       <c r="K8">
-        <v>1.047638417142532</v>
+        <v>1.027228114865952</v>
       </c>
       <c r="L8">
-        <v>1.057247585341569</v>
+        <v>1.021398078289119</v>
       </c>
       <c r="M8">
-        <v>1.067547057761749</v>
+        <v>1.022810220591938</v>
       </c>
       <c r="N8">
-        <v>1.053817478549271</v>
+        <v>1.021962447730026</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043584954397953</v>
+        <v>0.9778286858152656</v>
       </c>
       <c r="D9">
-        <v>1.0421488723906</v>
+        <v>1.000779771142502</v>
       </c>
       <c r="E9">
-        <v>1.051007365176179</v>
+        <v>0.9914144663279932</v>
       </c>
       <c r="F9">
-        <v>1.060739836928771</v>
+        <v>0.9901189462181411</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036092679569106</v>
+        <v>1.037857971997515</v>
       </c>
       <c r="J9">
-        <v>1.049337163287071</v>
+        <v>1.004189418498676</v>
       </c>
       <c r="K9">
-        <v>1.045291521366711</v>
+        <v>1.013860209759946</v>
       </c>
       <c r="L9">
-        <v>1.054121751823649</v>
+        <v>1.004648390798875</v>
       </c>
       <c r="M9">
-        <v>1.063823767444305</v>
+        <v>1.003374397108306</v>
       </c>
       <c r="N9">
-        <v>1.050827342419594</v>
+        <v>1.00561548265508</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041033645201152</v>
+        <v>0.962465357371377</v>
       </c>
       <c r="D10">
-        <v>1.040280406201721</v>
+        <v>0.9895009168021414</v>
       </c>
       <c r="E10">
-        <v>1.048622600237341</v>
+        <v>0.9776328026916823</v>
       </c>
       <c r="F10">
-        <v>1.057960100013911</v>
+        <v>0.9743645123010446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035469375643349</v>
+        <v>1.032845198385863</v>
       </c>
       <c r="J10">
-        <v>1.047331032386908</v>
+        <v>0.992251603611931</v>
       </c>
       <c r="K10">
-        <v>1.043710780777549</v>
+        <v>1.004062358694171</v>
       </c>
       <c r="L10">
-        <v>1.052023697773499</v>
+        <v>0.9924179986258244</v>
       </c>
       <c r="M10">
-        <v>1.06132902988328</v>
+        <v>0.9892125807745206</v>
       </c>
       <c r="N10">
-        <v>1.048818362583446</v>
+        <v>0.9936607147019096</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.03992538188453</v>
+        <v>0.9554286207462608</v>
       </c>
       <c r="D11">
-        <v>1.039468075257443</v>
+        <v>0.9843447257033385</v>
       </c>
       <c r="E11">
-        <v>1.047587044639802</v>
+        <v>0.9713339744032998</v>
       </c>
       <c r="F11">
-        <v>1.056753808616156</v>
+        <v>0.967165282838894</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03519593204117</v>
+        <v>1.030530177013375</v>
       </c>
       <c r="J11">
-        <v>1.046458537617744</v>
+        <v>0.9867808130707101</v>
       </c>
       <c r="K11">
-        <v>1.04302236951652</v>
+        <v>0.9995680423492207</v>
       </c>
       <c r="L11">
-        <v>1.051111717985073</v>
+        <v>0.9868175234555929</v>
       </c>
       <c r="M11">
-        <v>1.060245641846727</v>
+        <v>0.9827341660900497</v>
       </c>
       <c r="N11">
-        <v>1.047944628771633</v>
+        <v>0.9881821550106117</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039513178423022</v>
+        <v>0.9527501261138855</v>
       </c>
       <c r="D12">
-        <v>1.039165838024379</v>
+        <v>0.9823838807044866</v>
       </c>
       <c r="E12">
-        <v>1.047201938886261</v>
+        <v>0.9689386047547054</v>
       </c>
       <c r="F12">
-        <v>1.0563053251025</v>
+        <v>0.9644275495723494</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035093825512704</v>
+        <v>1.029646295030639</v>
       </c>
       <c r="J12">
-        <v>1.046133867654765</v>
+        <v>0.9846981161850263</v>
       </c>
       <c r="K12">
-        <v>1.042766061870443</v>
+        <v>0.9978565430054028</v>
       </c>
       <c r="L12">
-        <v>1.050772428854195</v>
+        <v>0.984686108626782</v>
       </c>
       <c r="M12">
-        <v>1.059842735800597</v>
+        <v>0.9802695383501917</v>
       </c>
       <c r="N12">
-        <v>1.047619497740067</v>
+        <v>0.9860965004564618</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039601622372523</v>
+        <v>0.9533277276155725</v>
       </c>
       <c r="D13">
-        <v>1.039230691780289</v>
+        <v>0.9828066363987998</v>
       </c>
       <c r="E13">
-        <v>1.047284566147326</v>
+        <v>0.9694550469397399</v>
       </c>
       <c r="F13">
-        <v>1.056401545286366</v>
+        <v>0.9650178056999055</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035115752096442</v>
+        <v>1.029837016690553</v>
       </c>
       <c r="J13">
-        <v>1.046203537194791</v>
+        <v>0.985147246437208</v>
       </c>
       <c r="K13">
-        <v>1.042821068076504</v>
+        <v>0.9982256478387788</v>
       </c>
       <c r="L13">
-        <v>1.050845232121724</v>
+        <v>0.9851457155500994</v>
       </c>
       <c r="M13">
-        <v>1.059929182804896</v>
+        <v>0.9808009575650225</v>
       </c>
       <c r="N13">
-        <v>1.047689266218831</v>
+        <v>0.9865462685251173</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03989132022451</v>
+        <v>0.9552085810139431</v>
       </c>
       <c r="D14">
-        <v>1.039443102517163</v>
+        <v>0.9841836019485861</v>
       </c>
       <c r="E14">
-        <v>1.047555221021867</v>
+        <v>0.9711371467298917</v>
       </c>
       <c r="F14">
-        <v>1.056716745347975</v>
+        <v>0.966940323020303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035187502871067</v>
+        <v>1.030457618794563</v>
       </c>
       <c r="J14">
-        <v>1.046431712330591</v>
+        <v>0.9866097227763563</v>
       </c>
       <c r="K14">
-        <v>1.043001195360783</v>
+        <v>0.9994274557095867</v>
       </c>
       <c r="L14">
-        <v>1.051083683310371</v>
+        <v>0.9866424179061658</v>
       </c>
       <c r="M14">
-        <v>1.060212347534672</v>
+        <v>0.982531667521775</v>
       </c>
       <c r="N14">
-        <v>1.047917765389495</v>
+        <v>0.9880108217484157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040069739952005</v>
+        <v>0.9563586284403786</v>
       </c>
       <c r="D15">
-        <v>1.039573909057824</v>
+        <v>0.9850257989040214</v>
       </c>
       <c r="E15">
-        <v>1.047721919829852</v>
+        <v>0.9721659676867944</v>
       </c>
       <c r="F15">
-        <v>1.056910895292209</v>
+        <v>0.9681161921679364</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035231639553573</v>
+        <v>1.030836739948935</v>
       </c>
       <c r="J15">
-        <v>1.046572220488136</v>
+        <v>0.9875039239574518</v>
       </c>
       <c r="K15">
-        <v>1.043112097806602</v>
+        <v>1.000162208617725</v>
       </c>
       <c r="L15">
-        <v>1.051230529139566</v>
+        <v>0.9875576311589103</v>
       </c>
       <c r="M15">
-        <v>1.060386749645344</v>
+        <v>0.9835900906997938</v>
       </c>
       <c r="N15">
-        <v>1.04805847308474</v>
+        <v>0.9889062927977544</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04110712136002</v>
+        <v>0.9629236949254195</v>
       </c>
       <c r="D16">
-        <v>1.040334248156281</v>
+        <v>0.9898369953688908</v>
       </c>
       <c r="E16">
-        <v>1.048691263665226</v>
+        <v>0.9780433716304834</v>
       </c>
       <c r="F16">
-        <v>1.058040100513093</v>
+        <v>0.9748337855111769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035487448064768</v>
+        <v>1.032995609401638</v>
       </c>
       <c r="J16">
-        <v>1.047388855375263</v>
+        <v>0.9926078958778095</v>
       </c>
       <c r="K16">
-        <v>1.043756384577853</v>
+        <v>1.004354977548059</v>
       </c>
       <c r="L16">
-        <v>1.052084147916643</v>
+        <v>0.9927828265746911</v>
       </c>
       <c r="M16">
-        <v>1.061400863198558</v>
+        <v>0.9896347282223407</v>
       </c>
       <c r="N16">
-        <v>1.048876267687077</v>
+        <v>0.9940175129436729</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041756887910492</v>
+        <v>0.9669343180797201</v>
       </c>
       <c r="D17">
-        <v>1.040810305793307</v>
+        <v>0.9927789399097167</v>
       </c>
       <c r="E17">
-        <v>1.049298512016511</v>
+        <v>0.981637534475435</v>
       </c>
       <c r="F17">
-        <v>1.05874770155262</v>
+        <v>0.9789419767459019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035646956885536</v>
+        <v>1.034309643900688</v>
       </c>
       <c r="J17">
-        <v>1.047900076146989</v>
+        <v>0.9957252660866671</v>
       </c>
       <c r="K17">
-        <v>1.044159467373231</v>
+        <v>1.006914776282219</v>
       </c>
       <c r="L17">
-        <v>1.052618652576205</v>
+        <v>0.9959753711519159</v>
       </c>
       <c r="M17">
-        <v>1.062036136453119</v>
+        <v>0.9933295862637324</v>
       </c>
       <c r="N17">
-        <v>1.049388214450936</v>
+        <v>0.9971393101757947</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042135546201646</v>
+        <v>0.9692370968326789</v>
       </c>
       <c r="D18">
-        <v>1.041087667043981</v>
+        <v>0.9944690009319118</v>
       </c>
       <c r="E18">
-        <v>1.049652427254739</v>
+        <v>0.9837024349460373</v>
       </c>
       <c r="F18">
-        <v>1.059160178928406</v>
+        <v>0.9813023200966793</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035739653553802</v>
+        <v>1.035062332277754</v>
       </c>
       <c r="J18">
-        <v>1.048197894129881</v>
+        <v>0.9975148720334245</v>
       </c>
       <c r="K18">
-        <v>1.044394199200125</v>
+        <v>1.008383894527914</v>
       </c>
       <c r="L18">
-        <v>1.052930082402836</v>
+        <v>0.9978085432374154</v>
       </c>
       <c r="M18">
-        <v>1.062406377612387</v>
+        <v>0.9954517984443049</v>
       </c>
       <c r="N18">
-        <v>1.049686455369525</v>
+        <v>0.9989314575682666</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042264601747298</v>
+        <v>0.9700162789305415</v>
       </c>
       <c r="D19">
-        <v>1.041182186904121</v>
+        <v>0.9950410005073732</v>
       </c>
       <c r="E19">
-        <v>1.049773055690443</v>
+        <v>0.9844013316352744</v>
       </c>
       <c r="F19">
-        <v>1.059300780380351</v>
+        <v>0.9821012389558167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035771202817992</v>
+        <v>1.035316707762774</v>
       </c>
       <c r="J19">
-        <v>1.048299380220607</v>
+        <v>0.9981203591221421</v>
       </c>
       <c r="K19">
-        <v>1.044474172582338</v>
+        <v>1.008880878957172</v>
       </c>
       <c r="L19">
-        <v>1.053036215010583</v>
+        <v>0.9984288401465885</v>
       </c>
       <c r="M19">
-        <v>1.062532569316294</v>
+        <v>0.9961700040102397</v>
       </c>
       <c r="N19">
-        <v>1.04978808558214</v>
+        <v>0.999537804518101</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041687209336827</v>
+        <v>0.966507843475626</v>
       </c>
       <c r="D20">
-        <v>1.040759261977795</v>
+        <v>0.9924660100673308</v>
       </c>
       <c r="E20">
-        <v>1.049233389325265</v>
+        <v>0.9812552141502411</v>
       </c>
       <c r="F20">
-        <v>1.058671809077204</v>
+        <v>0.978504965712702</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035629878517049</v>
+        <v>1.034170099534226</v>
       </c>
       <c r="J20">
-        <v>1.047845265190152</v>
+        <v>0.9953938060408919</v>
       </c>
       <c r="K20">
-        <v>1.044116259728119</v>
+        <v>1.006642642001786</v>
       </c>
       <c r="L20">
-        <v>1.05256134030196</v>
+        <v>0.9956358754056599</v>
       </c>
       <c r="M20">
-        <v>1.061968009086585</v>
+        <v>0.9929366113935327</v>
       </c>
       <c r="N20">
-        <v>1.049333325656254</v>
+        <v>0.9968073794187351</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039806026595564</v>
+        <v>0.9546565659895081</v>
       </c>
       <c r="D21">
-        <v>1.039380566767218</v>
+        <v>0.9837794205129798</v>
       </c>
       <c r="E21">
-        <v>1.047475532553902</v>
+        <v>0.9706434007821233</v>
       </c>
       <c r="F21">
-        <v>1.056623938317015</v>
+        <v>0.9663760073194191</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03516638892529</v>
+        <v>1.030275549148005</v>
       </c>
       <c r="J21">
-        <v>1.04636453672601</v>
+        <v>0.9861805038236947</v>
       </c>
       <c r="K21">
-        <v>1.042948169030615</v>
+        <v>0.9990747537825646</v>
       </c>
       <c r="L21">
-        <v>1.051013480361902</v>
+        <v>0.9862031362155288</v>
       </c>
       <c r="M21">
-        <v>1.060128976151438</v>
+        <v>0.9820236802375307</v>
       </c>
       <c r="N21">
-        <v>1.04785049438785</v>
+        <v>0.987580993255609</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03862009097946</v>
+        <v>0.9468262228756895</v>
       </c>
       <c r="D22">
-        <v>1.038510820838061</v>
+        <v>0.9780510079879018</v>
       </c>
       <c r="E22">
-        <v>1.046367663223887</v>
+        <v>0.9636453038724853</v>
       </c>
       <c r="F22">
-        <v>1.055333962372633</v>
+        <v>0.9583776068495047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034871863265579</v>
+        <v>1.027686718221092</v>
       </c>
       <c r="J22">
-        <v>1.045430144480179</v>
+        <v>0.9800916379382534</v>
       </c>
       <c r="K22">
-        <v>1.042210261965814</v>
+        <v>0.9940701893888095</v>
       </c>
       <c r="L22">
-        <v>1.050037153461889</v>
+        <v>0.979973074053631</v>
       </c>
       <c r="M22">
-        <v>1.058969875532991</v>
+        <v>0.9748213013199648</v>
       </c>
       <c r="N22">
-        <v>1.046914775197855</v>
+        <v>0.9814834804822078</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039249082543405</v>
+        <v>0.9510158327553403</v>
       </c>
       <c r="D23">
-        <v>1.038972168275034</v>
+        <v>0.9811148232732</v>
       </c>
       <c r="E23">
-        <v>1.0469552198946</v>
+        <v>0.9673882949846635</v>
       </c>
       <c r="F23">
-        <v>1.05601803557716</v>
+        <v>0.9626556525893136</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035028293233686</v>
+        <v>1.029073260682495</v>
       </c>
       <c r="J23">
-        <v>1.045925809632727</v>
+        <v>0.9833495436159908</v>
       </c>
       <c r="K23">
-        <v>1.0426017735852</v>
+        <v>0.9967481859330618</v>
       </c>
       <c r="L23">
-        <v>1.050555023202746</v>
+        <v>0.9833061734654998</v>
       </c>
       <c r="M23">
-        <v>1.059584609509203</v>
+        <v>0.9786741203298035</v>
       </c>
       <c r="N23">
-        <v>1.047411144251773</v>
+        <v>0.9847460127596949</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04171869513408</v>
+        <v>0.9667006614276914</v>
       </c>
       <c r="D24">
-        <v>1.040782327454614</v>
+        <v>0.9926074893661851</v>
       </c>
       <c r="E24">
-        <v>1.049262816338997</v>
+        <v>0.981428065199731</v>
       </c>
       <c r="F24">
-        <v>1.058706102405909</v>
+        <v>0.9787025426065851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035637596553818</v>
+        <v>1.034233195999414</v>
       </c>
       <c r="J24">
-        <v>1.047870033040683</v>
+        <v>0.995543666881577</v>
       </c>
       <c r="K24">
-        <v>1.044135784575892</v>
+        <v>1.00676568152584</v>
       </c>
       <c r="L24">
-        <v>1.052587238295143</v>
+        <v>0.9957893680972193</v>
       </c>
       <c r="M24">
-        <v>1.061998793847147</v>
+        <v>0.9931142811458838</v>
       </c>
       <c r="N24">
-        <v>1.049358128679974</v>
+        <v>0.9969574530790036</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044571274661826</v>
+        <v>0.983483939383332</v>
       </c>
       <c r="D25">
-        <v>1.042870588311257</v>
+        <v>1.004937715714376</v>
       </c>
       <c r="E25">
-        <v>1.05192961879905</v>
+        <v>0.996497600215019</v>
       </c>
       <c r="F25">
-        <v>1.0618155307087</v>
+        <v>0.9959315046225002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036331252573766</v>
+        <v>1.039686177499036</v>
       </c>
       <c r="J25">
-        <v>1.050111782808785</v>
+        <v>1.008580212049857</v>
       </c>
       <c r="K25">
-        <v>1.045901061291052</v>
+        <v>1.017459860554276</v>
       </c>
       <c r="L25">
-        <v>1.054932305379245</v>
+        <v>1.00915053083627</v>
       </c>
       <c r="M25">
-        <v>1.064788484095818</v>
+        <v>1.008593308781886</v>
       </c>
       <c r="N25">
-        <v>1.051603061989879</v>
+        <v>1.010012511636735</v>
       </c>
     </row>
   </sheetData>
